--- a/vina/11-Ca1.2_ID_8EOG/results/results.xlsx
+++ b/vina/11-Ca1.2_ID_8EOG/results/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirjr\OneDrive\Documents\github\docking\vina\11-Ca1.2_ID_8EOG\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\github\bio\docking\vina\11-Ca1.2_ID_8EOG\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AF37B49FFE432659888AFBB43A29EA16792277D2" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{40A2D445-8FE2-467C-849E-5A0496FACC14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF7B6E8-DE3D-44D0-A4BF-1230CAEEF9EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
   <si>
     <t>Affinity (kcal/mol)</t>
   </si>
@@ -173,13 +173,43 @@
   </si>
   <si>
     <t>ligand_verapamil</t>
+  </si>
+  <si>
+    <t>2_3_4_6_tetra_galloyl_glucose</t>
+  </si>
+  <si>
+    <t>1_3_6_tri_galloyl_glucose</t>
+  </si>
+  <si>
+    <t>cynaroside</t>
+  </si>
+  <si>
+    <t>rutin</t>
+  </si>
+  <si>
+    <t>plantaginin</t>
+  </si>
+  <si>
+    <t>acarbose</t>
+  </si>
+  <si>
+    <t>rosavin</t>
+  </si>
+  <si>
+    <t>turkesterone</t>
+  </si>
+  <si>
+    <t>ecdysteron</t>
+  </si>
+  <si>
+    <t>1_2_di_galloyl_glucose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,6 +255,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,6 +313,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,13 +631,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AMJ25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" activeCellId="1" sqref="B2:D2 C3"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1024" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="68.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -614,8 +657,9 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>-9</v>
+      <c r="C4" s="4" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -740,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AMJ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -749,10 +793,14 @@
     <col min="1" max="1" width="11.5703125" style="1"/>
     <col min="2" max="2" width="26.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="11.5703125" style="1"/>
+    <col min="4" max="21" width="11.5703125" style="1"/>
+    <col min="22" max="22" width="75.42578125" style="1" customWidth="1"/>
+    <col min="23" max="25" width="11.5703125" style="1"/>
+    <col min="26" max="26" width="46.28515625" style="1" customWidth="1"/>
+    <col min="27" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>24</v>
@@ -769,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>28</v>
@@ -807,8 +855,9 @@
       <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="6">
         <v>-9</v>
@@ -846,8 +895,21 @@
       <c r="P4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V4" s="7"/>
+      <c r="Z4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>-8.99</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>5.3285</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>10.006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="6">
         <v>-8.8000000000000007</v>
@@ -885,8 +947,21 @@
       <c r="P5" s="3">
         <v>12.702</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V5" s="7"/>
+      <c r="Z5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>-8.2799999999999994</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>3.5585</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>7.0014000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="6">
         <v>-8.8000000000000007</v>
@@ -924,8 +999,20 @@
       <c r="P6" s="3">
         <v>13.702</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Z6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>-7.99</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>3.4243000000000001</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>5.7394999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <v>-8.6999999999999993</v>
@@ -963,8 +1050,21 @@
       <c r="P7" s="3">
         <v>8.7210000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V7" s="7"/>
+      <c r="Z7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>-7.98</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>3.2955999999999999</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>5.7785000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="6">
         <v>-8.5</v>
@@ -1002,8 +1102,20 @@
       <c r="P8" s="3">
         <v>9.8010000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Z8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>-7.92</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>7.4195000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="6">
         <v>-8.5</v>
@@ -1041,8 +1153,20 @@
       <c r="P9" s="3">
         <v>12.670999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Z9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>-7.81</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>3.7528999999999999</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>5.4798999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="6">
         <v>-8.5</v>
@@ -1080,8 +1204,21 @@
       <c r="P10" s="3">
         <v>12.576000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V10" s="7"/>
+      <c r="Z10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>-7.66</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>4.1361999999999997</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>6.5351999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6">
         <v>-8.5</v>
@@ -1119,8 +1256,20 @@
       <c r="P11" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Z11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>-7.49</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>5.2354000000000003</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>9.7118000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="6">
         <v>-8.5</v>
@@ -1158,8 +1307,20 @@
       <c r="P12" s="3">
         <v>12.74</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Z12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>-7.45</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>7.6261999999999999</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="6">
         <v>-8.5</v>
@@ -1197,8 +1358,20 @@
       <c r="P13" s="3">
         <v>14.042999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Z13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>-7.17</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>2.4826999999999999</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>5.6112000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <f>AVERAGE(B4:B13)</f>
@@ -1249,11 +1422,9 @@
         <v>10.005599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="F15" s="1" t="s">
@@ -1266,17 +1437,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1307,15 +1472,9 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="6">
-        <v>-9.5</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="F17" s="3">
         <v>-5.6</v>
       </c>
@@ -1346,15 +1505,9 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="6">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="C18" s="6">
-        <v>7.4249999999999998</v>
-      </c>
-      <c r="D18" s="6">
-        <v>12.702</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="F18" s="3">
         <v>-5.5</v>
       </c>
@@ -1385,15 +1538,9 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>-9</v>
-      </c>
-      <c r="C19" s="6">
-        <v>8.5449999999999999</v>
-      </c>
-      <c r="D19" s="6">
-        <v>13.702</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="F19" s="3">
         <v>-5.4</v>
       </c>
@@ -1424,15 +1571,9 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="6">
-        <v>-9</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="D20" s="6">
-        <v>8.7210000000000001</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="F20" s="3">
         <v>-5.4</v>
       </c>
@@ -1463,15 +1604,9 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="6">
-        <v>-8.9</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3.0139999999999998</v>
-      </c>
-      <c r="D21" s="6">
-        <v>9.8010000000000002</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="F21" s="3">
         <v>-5.4</v>
       </c>
@@ -1502,15 +1637,9 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="6">
-        <v>-8.9</v>
-      </c>
-      <c r="C22" s="6">
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="D22" s="6">
-        <v>12.670999999999999</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="F22" s="3">
         <v>-5.3</v>
       </c>
@@ -1541,15 +1670,9 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="6">
-        <v>-8.9</v>
-      </c>
-      <c r="C23" s="6">
-        <v>7.2720000000000002</v>
-      </c>
-      <c r="D23" s="6">
-        <v>12.576000000000001</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="F23" s="3">
         <v>-5.3</v>
       </c>
@@ -1580,15 +1703,9 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="6">
-        <v>-8.9</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1.734</v>
-      </c>
-      <c r="D24" s="6">
-        <v>3.1</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="F24" s="3">
         <v>-5.3</v>
       </c>
@@ -1619,15 +1736,9 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="6">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="C25" s="6">
-        <v>8.0839999999999996</v>
-      </c>
-      <c r="D25" s="6">
-        <v>12.74</v>
-      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="F25" s="3">
         <v>-5.3</v>
       </c>
@@ -1658,15 +1769,9 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="6">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="C26" s="6">
-        <v>8.9969999999999999</v>
-      </c>
-      <c r="D26" s="6">
-        <v>14.042999999999999</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="F26" s="3">
         <v>-5.2</v>
       </c>
@@ -1697,18 +1802,9 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4">
-        <f>AVERAGE(B17:B26)</f>
-        <v>-8.9899999999999984</v>
-      </c>
-      <c r="C27" s="4">
-        <f>AVERAGE(C17:C26)</f>
-        <v>5.3285</v>
-      </c>
-      <c r="D27" s="4">
-        <f>AVERAGE(D17:D26)</f>
-        <v>10.005599999999998</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="F27" s="1">
         <f>AVERAGE(F17:F26)</f>
         <v>-5.3699999999999992</v>
